--- a/input/portfolio2.xlsx
+++ b/input/portfolio2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/korneliakozaczewska/Desktop/chmurka/git/fundusz-hossa-procapital/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/korneliakozaczewska/Desktop/chmurka/git/student-fund/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC41114-CF01-084B-B69E-1F101B1F71F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA029C42-3004-0241-89CB-7C272A46D02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{85C73857-8A8B-CF47-89B6-F60EF5C85B03}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20000" xr2:uid="{85C73857-8A8B-CF47-89B6-F60EF5C85B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Data wyceny</t>
   </si>
@@ -213,6 +213,30 @@
   </si>
   <si>
     <t>Zaufanie</t>
+  </si>
+  <si>
+    <t>Sektor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Consumer Non-Cyclicals</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>New Connect</t>
+  </si>
+  <si>
+    <t>Industry Group</t>
   </si>
 </sst>
 </file>
@@ -222,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;_);[Red]\(#,##0.00\ &quot;zł&quot;\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,6 +298,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +344,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -643,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497E46A-56E3-3E43-8870-B2D76E1F2ADE}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G25"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,10 +693,10 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="9" max="12" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,11 +724,20 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45685</v>
       </c>
@@ -718,11 +765,16 @@
       <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>45685</v>
       </c>
@@ -750,11 +802,16 @@
       <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45685</v>
       </c>
@@ -782,11 +839,16 @@
       <c r="I4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>45685</v>
       </c>
@@ -814,11 +876,16 @@
       <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45685</v>
       </c>
@@ -846,11 +913,16 @@
       <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45685</v>
       </c>
@@ -878,11 +950,16 @@
       <c r="I7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45709</v>
       </c>
@@ -910,11 +987,16 @@
       <c r="I8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45723</v>
       </c>
@@ -942,11 +1024,16 @@
       <c r="I9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45723</v>
       </c>
@@ -974,11 +1061,16 @@
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45798</v>
       </c>
@@ -1006,11 +1098,16 @@
       <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45827</v>
       </c>
@@ -1038,11 +1135,16 @@
       <c r="I12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45909</v>
       </c>
@@ -1070,7 +1172,12 @@
       <c r="I13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13">
         <v>0.5</v>
       </c>
     </row>
